--- a/Sharpe das Estratégias/s2T.xlsx
+++ b/Sharpe das Estratégias/s2T.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372AF5E-A44B-44AB-8CE2-8D1FFBF5E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,371 +638,373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>0.8929002714163273</v>
+        <v>0.89290027141632733</v>
       </c>
       <c r="C2">
-        <v>0.6925729486937091</v>
+        <v>0.69257294869370911</v>
       </c>
       <c r="D2">
-        <v>0.7466772062880639</v>
+        <v>0.74667720628806389</v>
       </c>
       <c r="E2">
-        <v>0.7053792332159254</v>
+        <v>0.70537923321592544</v>
       </c>
       <c r="F2">
         <v>0.6286581155157932</v>
       </c>
       <c r="G2">
-        <v>0.7882469244082312</v>
+        <v>0.78824692440823119</v>
       </c>
       <c r="H2">
-        <v>0.9606328206997954</v>
+        <v>0.96063282069979539</v>
       </c>
       <c r="I2">
-        <v>0.7257049713170248</v>
+        <v>0.72570497131702483</v>
       </c>
       <c r="J2">
-        <v>0.7094558097180761</v>
+        <v>0.70945580971807609</v>
       </c>
       <c r="K2">
         <v>0.7567114603061933</v>
       </c>
       <c r="L2">
-        <v>0.8282228831575535</v>
+        <v>0.82822288315755355</v>
       </c>
       <c r="M2">
-        <v>0.4523735628882348</v>
+        <v>0.45237356288823483</v>
       </c>
       <c r="N2">
-        <v>0.7161605292363181</v>
+        <v>0.71616052923631812</v>
       </c>
       <c r="O2">
-        <v>0.7932978640040046</v>
+        <v>0.79329786400400459</v>
       </c>
       <c r="P2">
-        <v>0.9842008837313581</v>
+        <v>0.98420088373135806</v>
       </c>
       <c r="Q2">
-        <v>0.7166552195884637</v>
+        <v>0.71665521958846368</v>
       </c>
       <c r="R2">
-        <v>0.8124406585842121</v>
+        <v>0.81244065858421211</v>
       </c>
       <c r="S2">
-        <v>1.08093703642707</v>
+        <v>1.0809370364270701</v>
       </c>
       <c r="T2">
         <v>1.260366921131433</v>
       </c>
       <c r="U2">
-        <v>1.170531307784222</v>
+        <v>1.1705313077842221</v>
       </c>
       <c r="V2">
-        <v>0.9582935003297999</v>
+        <v>0.95829350032979987</v>
       </c>
       <c r="W2">
-        <v>0.5245626220453791</v>
+        <v>0.52456262204537907</v>
       </c>
       <c r="X2">
-        <v>0.9431450635873151</v>
+        <v>0.94314506358731509</v>
       </c>
       <c r="Y2">
-        <v>0.770847218945775</v>
+        <v>0.77084721894577501</v>
       </c>
       <c r="Z2">
-        <v>0.9915145479540491</v>
+        <v>0.99151454795404914</v>
       </c>
       <c r="AA2">
-        <v>0.6082769700771405</v>
+        <v>0.60827697007714054</v>
       </c>
       <c r="AB2">
-        <v>0.5796180737257585</v>
+        <v>0.57961807372575846</v>
       </c>
       <c r="AC2">
-        <v>1.027372499048054</v>
+        <v>1.0273724990480539</v>
       </c>
       <c r="AD2">
-        <v>0.9230156271253194</v>
+        <v>0.92301562712531937</v>
       </c>
       <c r="AE2">
-        <v>0.681865277947</v>
+        <v>0.68186527794700003</v>
       </c>
       <c r="AF2">
-        <v>1.276926358737896</v>
+        <v>1.2769263587378961</v>
       </c>
       <c r="AG2">
-        <v>0.8335141404035638</v>
+        <v>0.83351414040356375</v>
       </c>
       <c r="AH2">
-        <v>0.8206563232792252</v>
+        <v>0.82065632327922522</v>
       </c>
       <c r="AI2">
-        <v>0.5990663756504375</v>
+        <v>0.59906637565043752</v>
       </c>
       <c r="AJ2">
-        <v>0.7595227080721957</v>
+        <v>0.75952270807219568</v>
       </c>
       <c r="AK2">
-        <v>0.8418374994035486</v>
+        <v>0.84183749940354857</v>
       </c>
       <c r="AL2">
-        <v>0.7512292920538373</v>
+        <v>0.75122929205383726</v>
       </c>
       <c r="AM2">
-        <v>0.7854325268508416</v>
+        <v>0.78543252685084164</v>
       </c>
       <c r="AN2">
-        <v>0.5783716095090727</v>
+        <v>0.57837160950907274</v>
       </c>
       <c r="AO2">
-        <v>0.7398879712825094</v>
+        <v>0.73988797128250938</v>
       </c>
       <c r="AP2">
-        <v>0.7148753013383987</v>
+        <v>0.71487530133839872</v>
       </c>
       <c r="AQ2">
         <v>1.003510200441899</v>
       </c>
       <c r="AR2">
-        <v>0.9894810525692347</v>
+        <v>0.98948105256923469</v>
       </c>
       <c r="AS2">
-        <v>0.4943271051817</v>
+        <v>0.49432710518169998</v>
       </c>
       <c r="AT2">
-        <v>0.759676192446521</v>
+        <v>0.75967619244652096</v>
       </c>
       <c r="AU2">
-        <v>0.677497543220006</v>
+        <v>0.67749754322000599</v>
       </c>
       <c r="AV2">
-        <v>0.8355119243591718</v>
+        <v>0.83551192435917176</v>
       </c>
       <c r="AW2">
-        <v>0.7916010968021717</v>
+        <v>0.79160109680217172</v>
       </c>
       <c r="AX2">
         <v>1.039493686934001</v>
       </c>
       <c r="AY2">
-        <v>0.759628704260579</v>
+        <v>0.75962870426057905</v>
       </c>
       <c r="AZ2">
-        <v>0.4750402462380187</v>
+        <v>0.47504024623801872</v>
       </c>
       <c r="BA2">
-        <v>0.5631562058833682</v>
+        <v>0.56315620588336823</v>
       </c>
       <c r="BB2">
-        <v>0.7356800776309279</v>
+        <v>0.73568007763092791</v>
       </c>
       <c r="BC2">
-        <v>0.837244086551603</v>
+        <v>0.83724408655160298</v>
       </c>
       <c r="BD2">
-        <v>0.7219116223615866</v>
+        <v>0.72191162236158657</v>
       </c>
       <c r="BE2">
         <v>0.6745725230328643</v>
       </c>
       <c r="BF2">
-        <v>0.7653816586770739</v>
+        <v>0.76538165867707386</v>
       </c>
       <c r="BG2">
-        <v>0.7957830569829979</v>
+        <v>0.79578305698299789</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B3">
         <v>1.25540024315966</v>
@@ -738,40 +1013,40 @@
         <v>1.127386929680833</v>
       </c>
       <c r="D3">
-        <v>1.061703408441553</v>
+        <v>1.0617034084415531</v>
       </c>
       <c r="E3">
         <v>1.275602942495941</v>
       </c>
       <c r="F3">
-        <v>1.168420033061553</v>
+        <v>1.1684200330615531</v>
       </c>
       <c r="G3">
         <v>1.287486444508956</v>
       </c>
       <c r="H3">
-        <v>1.264675191152746</v>
+        <v>1.2646751911527461</v>
       </c>
       <c r="I3">
         <v>1.17760249866051</v>
       </c>
       <c r="J3">
-        <v>0.9758254604713376</v>
+        <v>0.97582546047133756</v>
       </c>
       <c r="K3">
         <v>1.093100930143718</v>
       </c>
       <c r="L3">
-        <v>1.115920069097691</v>
+        <v>1.1159200690976909</v>
       </c>
       <c r="M3">
         <v>1.009902054231097</v>
       </c>
       <c r="N3">
-        <v>0.9193214175865765</v>
+        <v>0.91932141758657648</v>
       </c>
       <c r="O3">
-        <v>1.05214805479929</v>
+        <v>1.0521480547992901</v>
       </c>
       <c r="P3">
         <v>1.261437534086937</v>
@@ -783,13 +1058,13 @@
         <v>1.264822350584643</v>
       </c>
       <c r="S3">
-        <v>1.335834617555323</v>
+        <v>1.3358346175553231</v>
       </c>
       <c r="T3">
         <v>1.259930572044565</v>
       </c>
       <c r="U3">
-        <v>1.376387228745256</v>
+        <v>1.3763872287452561</v>
       </c>
       <c r="V3">
         <v>1.229399868298799</v>
@@ -804,25 +1079,25 @@
         <v>1.307987827739588</v>
       </c>
       <c r="Z3">
-        <v>1.310933517338548</v>
+        <v>1.3109335173385479</v>
       </c>
       <c r="AA3">
         <v>1.093156004813163</v>
       </c>
       <c r="AB3">
-        <v>1.098112929921431</v>
+        <v>1.0981129299214309</v>
       </c>
       <c r="AC3">
         <v>1.016666046645569</v>
       </c>
       <c r="AD3">
-        <v>1.154827048150242</v>
+        <v>1.1548270481502421</v>
       </c>
       <c r="AE3">
         <v>1.14768744587775</v>
       </c>
       <c r="AF3">
-        <v>1.334589685798551</v>
+        <v>1.3345896857985511</v>
       </c>
       <c r="AG3">
         <v>1.126954224606165</v>
@@ -831,46 +1106,46 @@
         <v>1.212833469356325</v>
       </c>
       <c r="AI3">
-        <v>0.9629732116330638</v>
+        <v>0.96297321163306382</v>
       </c>
       <c r="AJ3">
-        <v>0.9680290964484216</v>
+        <v>0.96802909644842161</v>
       </c>
       <c r="AK3">
-        <v>1.170189940496943</v>
+        <v>1.1701899404969429</v>
       </c>
       <c r="AL3">
         <v>1.053374322055517</v>
       </c>
       <c r="AM3">
-        <v>1.169515675549215</v>
+        <v>1.1695156755492151</v>
       </c>
       <c r="AN3">
-        <v>1.050445589160229</v>
+        <v>1.0504455891602289</v>
       </c>
       <c r="AO3">
-        <v>0.9416410228110825</v>
+        <v>0.94164102281108253</v>
       </c>
       <c r="AP3">
-        <v>0.9892181854694547</v>
+        <v>0.98921818546945472</v>
       </c>
       <c r="AQ3">
-        <v>1.193638780360642</v>
+        <v>1.1936387803606421</v>
       </c>
       <c r="AR3">
         <v>1.255057288132126</v>
       </c>
       <c r="AS3">
-        <v>1.012877827461251</v>
+        <v>1.0128778274612511</v>
       </c>
       <c r="AT3">
-        <v>1.279829909829649</v>
+        <v>1.2798299098296491</v>
       </c>
       <c r="AU3">
-        <v>1.316077027403339</v>
+        <v>1.3160770274033391</v>
       </c>
       <c r="AV3">
-        <v>1.292891315708511</v>
+        <v>1.2928913157085109</v>
       </c>
       <c r="AW3">
         <v>1.117747054630696</v>
@@ -882,16 +1157,16 @@
         <v>1.162046103929661</v>
       </c>
       <c r="AZ3">
-        <v>1.0587743549334</v>
+        <v>1.0587743549334001</v>
       </c>
       <c r="BA3">
-        <v>1.007726752437966</v>
+        <v>1.0077267524379661</v>
       </c>
       <c r="BB3">
-        <v>0.9715087764766149</v>
+        <v>0.97150877647661493</v>
       </c>
       <c r="BC3">
-        <v>1.143570717798705</v>
+        <v>1.1435707177987049</v>
       </c>
       <c r="BD3">
         <v>1.160853200269802</v>
@@ -900,33 +1175,33 @@
         <v>1.124073022191997</v>
       </c>
       <c r="BF3">
-        <v>1.093926506556577</v>
+        <v>1.0939265065565771</v>
       </c>
       <c r="BG3">
-        <v>1.191166149223763</v>
+        <v>1.1911661492237631</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>0.5711787212312703</v>
+        <v>0.57117872123127034</v>
       </c>
       <c r="C4">
-        <v>0.6291648293833643</v>
+        <v>0.62916482938336427</v>
       </c>
       <c r="D4">
-        <v>0.1861498981353107</v>
+        <v>0.18614989813531069</v>
       </c>
       <c r="E4">
-        <v>0.217555849084474</v>
+        <v>0.21755584908447401</v>
       </c>
       <c r="F4">
-        <v>0.6032847383249653</v>
+        <v>0.60328473832496532</v>
       </c>
       <c r="G4">
-        <v>0.1864348476193166</v>
+        <v>0.18643484761931661</v>
       </c>
       <c r="H4">
         <v>0.6766445555660211</v>
@@ -935,106 +1210,106 @@
         <v>0.6581618703922133</v>
       </c>
       <c r="J4">
-        <v>0.6148987043150226</v>
+        <v>0.61489870431502258</v>
       </c>
       <c r="K4">
-        <v>0.2867300362500769</v>
+        <v>0.28673003625007693</v>
       </c>
       <c r="L4">
-        <v>0.2713408695040678</v>
+        <v>0.27134086950406783</v>
       </c>
       <c r="M4">
-        <v>0.490152770578183</v>
+        <v>0.49015277057818302</v>
       </c>
       <c r="N4">
-        <v>0.6327606637635816</v>
+        <v>0.63276066376358164</v>
       </c>
       <c r="O4">
-        <v>0.4811414680244803</v>
+        <v>0.48114146802448032</v>
       </c>
       <c r="P4">
-        <v>0.8272103741164786</v>
+        <v>0.82721037411647858</v>
       </c>
       <c r="Q4">
-        <v>0.6270279859321031</v>
+        <v>0.62702798593210307</v>
       </c>
       <c r="R4">
-        <v>0.3250983478586384</v>
+        <v>0.32509834785863839</v>
       </c>
       <c r="S4">
-        <v>0.6249120446847997</v>
+        <v>0.62491204468479966</v>
       </c>
       <c r="T4">
-        <v>1.245893416401593</v>
+        <v>1.2458934164015929</v>
       </c>
       <c r="U4">
-        <v>0.5578383711146067</v>
+        <v>0.55783837111460666</v>
       </c>
       <c r="V4">
-        <v>0.60934832248764</v>
+        <v>0.60934832248764004</v>
       </c>
       <c r="W4">
-        <v>0.5335732233116613</v>
+        <v>0.53357322331166135</v>
       </c>
       <c r="X4">
-        <v>0.7167939057335241</v>
+        <v>0.71679390573352408</v>
       </c>
       <c r="Y4">
-        <v>0.6769343061483248</v>
+        <v>0.67693430614832484</v>
       </c>
       <c r="Z4">
-        <v>0.6264260386219682</v>
+        <v>0.62642603862196822</v>
       </c>
       <c r="AA4">
-        <v>0.3460500747188136</v>
+        <v>0.34605007471881361</v>
       </c>
       <c r="AB4">
-        <v>0.2039209199193202</v>
+        <v>0.20392091991932021</v>
       </c>
       <c r="AC4">
-        <v>0.8140737638007339</v>
+        <v>0.81407376380073393</v>
       </c>
       <c r="AD4">
-        <v>1.016952516177272</v>
+        <v>1.0169525161772719</v>
       </c>
       <c r="AE4">
         <v>0.3304425412261735</v>
       </c>
       <c r="AF4">
-        <v>0.5463990532221554</v>
+        <v>0.54639905322215543</v>
       </c>
       <c r="AG4">
-        <v>0.6286826512739582</v>
+        <v>0.62868265127395817</v>
       </c>
       <c r="AH4">
-        <v>0.6506454099289853</v>
+        <v>0.65064540992898534</v>
       </c>
       <c r="AI4">
-        <v>0.4657474665381304</v>
+        <v>0.46574746653813037</v>
       </c>
       <c r="AJ4">
-        <v>0.7751750398543586</v>
+        <v>0.77517503985435865</v>
       </c>
       <c r="AK4">
-        <v>0.5017999983623239</v>
+        <v>0.50179999836232392</v>
       </c>
       <c r="AL4">
         <v>0.2483743056911826</v>
       </c>
       <c r="AM4">
-        <v>0.3363479428424248</v>
+        <v>0.33634794284242481</v>
       </c>
       <c r="AN4">
-        <v>0.3605199631148407</v>
+        <v>0.36051996311484069</v>
       </c>
       <c r="AO4">
-        <v>0.3575895116565597</v>
+        <v>0.35758951165655972</v>
       </c>
       <c r="AP4">
-        <v>0.5195737953639876</v>
+        <v>0.51957379536398762</v>
       </c>
       <c r="AQ4">
-        <v>0.3942809905995773</v>
+        <v>0.39428099059957727</v>
       </c>
       <c r="AR4">
         <v>0.5775322682592563</v>
@@ -1043,25 +1318,25 @@
         <v>0.1155542793233288</v>
       </c>
       <c r="AT4">
-        <v>0.7455577203287879</v>
+        <v>0.74555772032878787</v>
       </c>
       <c r="AU4">
         <v>0.1979429453094953</v>
       </c>
       <c r="AV4">
-        <v>0.3428250922644611</v>
+        <v>0.34282509226446112</v>
       </c>
       <c r="AW4">
-        <v>0.5185235291381369</v>
+        <v>0.51852352913813693</v>
       </c>
       <c r="AX4">
-        <v>0.4617750979910685</v>
+        <v>0.46177509799106847</v>
       </c>
       <c r="AY4">
-        <v>0.5336356344729107</v>
+        <v>0.53363563447291074</v>
       </c>
       <c r="AZ4">
-        <v>0.5736875073097205</v>
+        <v>0.57368750730972051</v>
       </c>
       <c r="BA4">
         <v>0.103894648606355</v>
@@ -1070,13 +1345,13 @@
         <v>0.6584190629486264</v>
       </c>
       <c r="BC4">
-        <v>0.2841020924950272</v>
+        <v>0.28410209249502721</v>
       </c>
       <c r="BD4">
-        <v>0.7275170671643675</v>
+        <v>0.72751706716436748</v>
       </c>
       <c r="BE4">
-        <v>0.08553486650101037</v>
+        <v>8.5534866501010373E-2</v>
       </c>
       <c r="BF4">
         <v>0.2263303460787115</v>
@@ -1085,236 +1360,236 @@
         <v>0.5361120597455119</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>0.415048371260044</v>
+        <v>0.41504837126004401</v>
       </c>
       <c r="C5">
-        <v>0.4758765406011435</v>
+        <v>0.47587654060114348</v>
       </c>
       <c r="D5">
-        <v>0.2087908533678108</v>
+        <v>0.20879085336781081</v>
       </c>
       <c r="E5">
-        <v>-0.0651648436881626</v>
+        <v>-6.5164843688162596E-2</v>
       </c>
       <c r="F5">
-        <v>0.3849839206512672</v>
+        <v>0.38498392065126719</v>
       </c>
       <c r="G5">
-        <v>0.3752160015352132</v>
+        <v>0.37521600153521317</v>
       </c>
       <c r="H5">
-        <v>0.4094034526808071</v>
+        <v>0.40940345268080708</v>
       </c>
       <c r="I5">
-        <v>0.4592096087061296</v>
+        <v>0.45920960870612959</v>
       </c>
       <c r="J5">
         <v>0.6115967834541759</v>
       </c>
       <c r="K5">
-        <v>0.2327977027050726</v>
+        <v>0.23279770270507261</v>
       </c>
       <c r="L5">
-        <v>0.26681043783158</v>
+        <v>0.26681043783157998</v>
       </c>
       <c r="M5">
         <v>0.3691877165329715</v>
       </c>
       <c r="N5">
-        <v>0.5505564978958682</v>
+        <v>0.55055649789586825</v>
       </c>
       <c r="O5">
         <v>0.1047918134755292</v>
       </c>
       <c r="P5">
-        <v>0.6842535942544296</v>
+        <v>0.68425359425442955</v>
       </c>
       <c r="Q5">
-        <v>0.483025111720036</v>
+        <v>0.48302511172003598</v>
       </c>
       <c r="R5">
-        <v>0.07446571215299949</v>
+        <v>7.4465712152999491E-2</v>
       </c>
       <c r="S5">
-        <v>0.5135493639273662</v>
+        <v>0.51354936392736616</v>
       </c>
       <c r="T5">
-        <v>0.940018577975534</v>
+        <v>0.94001857797553401</v>
       </c>
       <c r="U5">
-        <v>0.4553962384183486</v>
+        <v>0.45539623841834859</v>
       </c>
       <c r="V5">
-        <v>0.4089043405573025</v>
+        <v>0.40890434055730251</v>
       </c>
       <c r="W5">
-        <v>0.5155156577631363</v>
+        <v>0.51551565776313635</v>
       </c>
       <c r="X5">
-        <v>0.4802899219668766</v>
+        <v>0.48028992196687659</v>
       </c>
       <c r="Y5">
-        <v>0.4721456054117448</v>
+        <v>0.47214560541174477</v>
       </c>
       <c r="Z5">
         <v>0.4483072521296903</v>
       </c>
       <c r="AA5">
-        <v>0.1629187940397991</v>
+        <v>0.16291879403979909</v>
       </c>
       <c r="AB5">
-        <v>0.1730690457561151</v>
+        <v>0.17306904575611509</v>
       </c>
       <c r="AC5">
-        <v>0.8486665076307286</v>
+        <v>0.84866650763072859</v>
       </c>
       <c r="AD5">
-        <v>0.7412851899624255</v>
+        <v>0.74128518996242554</v>
       </c>
       <c r="AE5">
-        <v>0.2201381276264159</v>
+        <v>0.22013812762641591</v>
       </c>
       <c r="AF5">
-        <v>0.6667547610940527</v>
+        <v>0.66675476109405274</v>
       </c>
       <c r="AG5">
-        <v>0.5365559146546165</v>
+        <v>0.53655591465461649</v>
       </c>
       <c r="AH5">
-        <v>0.4674022959991971</v>
+        <v>0.46740229599919708</v>
       </c>
       <c r="AI5">
-        <v>0.3738267707599688</v>
+        <v>0.37382677075996879</v>
       </c>
       <c r="AJ5">
-        <v>0.7491553927726756</v>
+        <v>0.74915539277267562</v>
       </c>
       <c r="AK5">
-        <v>0.3625461145004023</v>
+        <v>0.36254611450040231</v>
       </c>
       <c r="AL5">
-        <v>0.2878496332037608</v>
+        <v>0.28784963320376078</v>
       </c>
       <c r="AM5">
-        <v>0.2246844913760258</v>
+        <v>0.22468449137602581</v>
       </c>
       <c r="AN5">
-        <v>0.2561540792545062</v>
+        <v>0.25615407925450617</v>
       </c>
       <c r="AO5">
         <v>0.1696764476085367</v>
       </c>
       <c r="AP5">
-        <v>0.2843488141196991</v>
+        <v>0.28434881411969909</v>
       </c>
       <c r="AQ5">
-        <v>0.4668202328755039</v>
+        <v>0.46682023287550389</v>
       </c>
       <c r="AR5">
-        <v>0.4219401382486472</v>
+        <v>0.42194013824864718</v>
       </c>
       <c r="AS5">
-        <v>-0.1901861549963769</v>
+        <v>-0.19018615499637689</v>
       </c>
       <c r="AT5">
-        <v>0.5053662347388623</v>
+        <v>0.50536623473886233</v>
       </c>
       <c r="AU5">
-        <v>0.02771274707853248</v>
+        <v>2.7712747078532479E-2</v>
       </c>
       <c r="AV5">
-        <v>0.1244315656758248</v>
+        <v>0.12443156567582481</v>
       </c>
       <c r="AW5">
-        <v>0.5430864502718304</v>
+        <v>0.54308645027183045</v>
       </c>
       <c r="AX5">
-        <v>0.3888396060194376</v>
+        <v>0.38883960601943762</v>
       </c>
       <c r="AY5">
         <v>0.4049671851203438</v>
       </c>
       <c r="AZ5">
-        <v>0.3646641254200731</v>
+        <v>0.36466412542007309</v>
       </c>
       <c r="BA5">
-        <v>0.07126665540637088</v>
+        <v>7.126665540637088E-2</v>
       </c>
       <c r="BB5">
-        <v>0.4553822618068765</v>
+        <v>0.45538226180687652</v>
       </c>
       <c r="BC5">
-        <v>0.3725344739476321</v>
+        <v>0.37253447394763212</v>
       </c>
       <c r="BD5">
-        <v>0.508702644889558</v>
+        <v>0.50870264488955796</v>
       </c>
       <c r="BE5">
-        <v>0.1690811048323742</v>
+        <v>0.16908110483237421</v>
       </c>
       <c r="BF5">
-        <v>0.2886405222246977</v>
+        <v>0.28864052222469772</v>
       </c>
       <c r="BG5">
-        <v>0.2442633609775959</v>
+        <v>0.24426336097759591</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>2.075765743842838</v>
+        <v>2.0757657438428381</v>
       </c>
       <c r="C6">
         <v>2.014802560593195</v>
       </c>
       <c r="D6">
-        <v>2.097959820558802</v>
+        <v>2.0979598205588021</v>
       </c>
       <c r="E6">
-        <v>2.276194435815271</v>
+        <v>2.2761944358152708</v>
       </c>
       <c r="F6">
-        <v>2.155479469121566</v>
+        <v>2.1554794691215662</v>
       </c>
       <c r="G6">
-        <v>2.012024083278263</v>
+        <v>2.0120240832782632</v>
       </c>
       <c r="H6">
         <v>2.143109335230061</v>
       </c>
       <c r="I6">
-        <v>2.087979724641469</v>
+        <v>2.0879797246414689</v>
       </c>
       <c r="J6">
-        <v>2.171478993240721</v>
+        <v>2.1714789932407208</v>
       </c>
       <c r="K6">
-        <v>2.02469229675623</v>
+        <v>2.0246922967562302</v>
       </c>
       <c r="L6">
-        <v>2.214074314097778</v>
+        <v>2.2140743140977781</v>
       </c>
       <c r="M6">
-        <v>2.003786724726447</v>
+        <v>2.0037867247264471</v>
       </c>
       <c r="N6">
-        <v>1.869520153399017</v>
+        <v>1.8695201533990169</v>
       </c>
       <c r="O6">
-        <v>2.018628077582066</v>
+        <v>2.0186280775820662</v>
       </c>
       <c r="P6">
-        <v>1.968206004515494</v>
+        <v>1.9682060045154941</v>
       </c>
       <c r="Q6">
-        <v>1.978726158017931</v>
+        <v>1.9787261580179309</v>
       </c>
       <c r="R6">
         <v>2.200093652749866</v>
@@ -1323,22 +1598,22 @@
         <v>2.192392437923707</v>
       </c>
       <c r="T6">
-        <v>2.276069545850398</v>
+        <v>2.2760695458503979</v>
       </c>
       <c r="U6">
-        <v>2.077635476401065</v>
+        <v>2.0776354764010652</v>
       </c>
       <c r="V6">
         <v>2.039254687824005</v>
       </c>
       <c r="W6">
-        <v>2.116343379170777</v>
+        <v>2.1163433791707771</v>
       </c>
       <c r="X6">
         <v>1.977532909747356</v>
       </c>
       <c r="Y6">
-        <v>2.028179858452681</v>
+        <v>2.0281798584526811</v>
       </c>
       <c r="Z6">
         <v>2.125216655854604</v>
@@ -1347,49 +1622,49 @@
         <v>2.026145954908646</v>
       </c>
       <c r="AB6">
-        <v>2.00707358554152</v>
+        <v>2.0070735855415198</v>
       </c>
       <c r="AC6">
-        <v>2.22912811630382</v>
+        <v>2.2291281163038201</v>
       </c>
       <c r="AD6">
         <v>2.092379238835687</v>
       </c>
       <c r="AE6">
-        <v>2.104266872624018</v>
+        <v>2.1042668726240179</v>
       </c>
       <c r="AF6">
-        <v>2.274080060917982</v>
+        <v>2.2740800609179819</v>
       </c>
       <c r="AG6">
-        <v>1.903764868811867</v>
+        <v>1.9037648688118669</v>
       </c>
       <c r="AH6">
-        <v>2.055115058276486</v>
+        <v>2.0551150582764861</v>
       </c>
       <c r="AI6">
         <v>1.918945222414884</v>
       </c>
       <c r="AJ6">
-        <v>2.116099375778791</v>
+        <v>2.1160993757787909</v>
       </c>
       <c r="AK6">
-        <v>2.176182728393104</v>
+        <v>2.1761827283931039</v>
       </c>
       <c r="AL6">
-        <v>2.155820667812622</v>
+        <v>2.1558206678126219</v>
       </c>
       <c r="AM6">
-        <v>2.088719359232338</v>
+        <v>2.0887193592323379</v>
       </c>
       <c r="AN6">
-        <v>2.138612907697459</v>
+        <v>2.1386129076974592</v>
       </c>
       <c r="AO6">
-        <v>2.142554314649001</v>
+        <v>2.1425543146490011</v>
       </c>
       <c r="AP6">
-        <v>1.991812197453461</v>
+        <v>1.9918121974534611</v>
       </c>
       <c r="AQ6">
         <v>2.204367240701846</v>
@@ -1398,7 +1673,7 @@
         <v>2.151061752377601</v>
       </c>
       <c r="AS6">
-        <v>2.044470920871684</v>
+        <v>2.0444709208716838</v>
       </c>
       <c r="AT6">
         <v>2.162020727828601</v>
@@ -1407,25 +1682,25 @@
         <v>2.097747164417628</v>
       </c>
       <c r="AV6">
-        <v>2.062050455569234</v>
+        <v>2.0620504555692341</v>
       </c>
       <c r="AW6">
-        <v>2.166859025290769</v>
+        <v>2.1668590252907691</v>
       </c>
       <c r="AX6">
-        <v>2.113115559696294</v>
+        <v>2.1131155596962938</v>
       </c>
       <c r="AY6">
-        <v>2.160873252442811</v>
+        <v>2.1608732524428111</v>
       </c>
       <c r="AZ6">
-        <v>2.007130109931379</v>
+        <v>2.0071301099313792</v>
       </c>
       <c r="BA6">
         <v>1.9907206041159</v>
       </c>
       <c r="BB6">
-        <v>2.117031189535828</v>
+        <v>2.1170311895358278</v>
       </c>
       <c r="BC6">
         <v>2.000817461391569</v>
@@ -1440,78 +1715,78 @@
         <v>2.015579151353609</v>
       </c>
       <c r="BG6">
-        <v>2.11942525790003</v>
+        <v>2.1194252579000299</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>0.9815656333029549</v>
+        <v>0.98156563330295488</v>
       </c>
       <c r="C7">
-        <v>0.8923492937699619</v>
+        <v>0.89234929376996186</v>
       </c>
       <c r="D7">
-        <v>0.9240565894369011</v>
+        <v>0.92405658943690105</v>
       </c>
       <c r="E7">
-        <v>0.9483839152851616</v>
+        <v>0.94838391528516164</v>
       </c>
       <c r="F7">
-        <v>0.9937998608868208</v>
+        <v>0.99379986088682082</v>
       </c>
       <c r="G7">
-        <v>1.002464312610842</v>
+        <v>1.0024643126108419</v>
       </c>
       <c r="H7">
-        <v>0.9232629568508879</v>
+        <v>0.92326295685088788</v>
       </c>
       <c r="I7">
-        <v>0.9871162693159198</v>
+        <v>0.98711626931591978</v>
       </c>
       <c r="J7">
-        <v>1.02810816614758</v>
+        <v>1.0281081661475799</v>
       </c>
       <c r="K7">
-        <v>0.9365359614022054</v>
+        <v>0.93653596140220541</v>
       </c>
       <c r="L7">
-        <v>1.013877022564032</v>
+        <v>1.0138770225640319</v>
       </c>
       <c r="M7">
-        <v>0.9099940839223732</v>
+        <v>0.90999408392237324</v>
       </c>
       <c r="N7">
-        <v>1.080467218349317</v>
+        <v>1.0804672183493169</v>
       </c>
       <c r="O7">
-        <v>0.9868615363447413</v>
+        <v>0.98686153634474127</v>
       </c>
       <c r="P7">
-        <v>1.031902959419222</v>
+        <v>1.0319029594192219</v>
       </c>
       <c r="Q7">
-        <v>0.897891318539101</v>
+        <v>0.89789131853910098</v>
       </c>
       <c r="R7">
-        <v>0.9883149349126519</v>
+        <v>0.98831493491265188</v>
       </c>
       <c r="S7">
         <v>1.001111076229652</v>
       </c>
       <c r="T7">
-        <v>1.028793722264448</v>
+        <v>1.0287937222644481</v>
       </c>
       <c r="U7">
-        <v>0.9614094943611664</v>
+        <v>0.96140949436116641</v>
       </c>
       <c r="V7">
-        <v>1.008336906607716</v>
+        <v>1.0083369066077159</v>
       </c>
       <c r="W7">
-        <v>0.9109148173985316</v>
+        <v>0.91091481739853164</v>
       </c>
       <c r="X7">
         <v>1.06306932549762</v>
@@ -1520,13 +1795,13 @@
         <v>0.9651574041266282</v>
       </c>
       <c r="Z7">
-        <v>0.9834415478019436</v>
+        <v>0.98344154780194359</v>
       </c>
       <c r="AA7">
-        <v>0.9329080492504574</v>
+        <v>0.93290804925045745</v>
       </c>
       <c r="AB7">
-        <v>0.9581910208499227</v>
+        <v>0.95819102084992269</v>
       </c>
       <c r="AC7">
         <v>0.9506771507169347</v>
@@ -1538,55 +1813,55 @@
         <v>1.054817250530321</v>
       </c>
       <c r="AF7">
-        <v>1.00165200879802</v>
+        <v>1.0016520087980201</v>
       </c>
       <c r="AG7">
-        <v>0.9814781904708028</v>
+        <v>0.98147819047080276</v>
       </c>
       <c r="AH7">
-        <v>0.9466988548346577</v>
+        <v>0.94669885483465765</v>
       </c>
       <c r="AI7">
-        <v>0.8744712825728674</v>
+        <v>0.87447128257286744</v>
       </c>
       <c r="AJ7">
-        <v>0.9926219373027632</v>
+        <v>0.99262193730276316</v>
       </c>
       <c r="AK7">
         <v>1.006498776956491</v>
       </c>
       <c r="AL7">
-        <v>0.9332847729480335</v>
+        <v>0.93328477294803347</v>
       </c>
       <c r="AM7">
-        <v>1.000374011145246</v>
+        <v>1.0003740111452459</v>
       </c>
       <c r="AN7">
-        <v>0.917855144628469</v>
+        <v>0.91785514462846896</v>
       </c>
       <c r="AO7">
-        <v>0.9536756162175904</v>
+        <v>0.95367561621759045</v>
       </c>
       <c r="AP7">
         <v>1.008603204961797</v>
       </c>
       <c r="AQ7">
-        <v>1.061598883482827</v>
+        <v>1.0615988834828269</v>
       </c>
       <c r="AR7">
-        <v>0.958487017563866</v>
+        <v>0.95848701756386601</v>
       </c>
       <c r="AS7">
         <v>1.037834433562782</v>
       </c>
       <c r="AT7">
-        <v>0.9935790684312005</v>
+        <v>0.99357906843120047</v>
       </c>
       <c r="AU7">
-        <v>0.967014065139789</v>
+        <v>0.96701406513978905</v>
       </c>
       <c r="AV7">
-        <v>0.9207544517798865</v>
+        <v>0.92075445177988646</v>
       </c>
       <c r="AW7">
         <v>0.9830614012935186</v>
@@ -1595,7 +1870,7 @@
         <v>1.056537595180534</v>
       </c>
       <c r="AY7">
-        <v>0.9753668879268051</v>
+        <v>0.97536688792680515</v>
       </c>
       <c r="AZ7">
         <v>1.073009993248591</v>
@@ -1604,192 +1879,192 @@
         <v>0.9677058777083285</v>
       </c>
       <c r="BB7">
-        <v>0.9264983473118599</v>
+        <v>0.92649834731185987</v>
       </c>
       <c r="BC7">
         <v>0.9568185550788596</v>
       </c>
       <c r="BD7">
-        <v>0.9730205509610572</v>
+        <v>0.97302055096105722</v>
       </c>
       <c r="BE7">
         <v>1.008437947739087</v>
       </c>
       <c r="BF7">
-        <v>0.9748010589424098</v>
+        <v>0.97480105894240976</v>
       </c>
       <c r="BG7">
-        <v>0.9860833638385664</v>
+        <v>0.98608336383856643</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>0.8135067511365998</v>
+        <v>0.81350675113659976</v>
       </c>
       <c r="C8">
-        <v>1.025740177845489</v>
+        <v>1.0257401778454891</v>
       </c>
       <c r="D8">
-        <v>0.4594983360770578</v>
+        <v>0.45949833607705781</v>
       </c>
       <c r="E8">
-        <v>0.5085763992529078</v>
+        <v>0.50857639925290776</v>
       </c>
       <c r="F8">
-        <v>0.9253551046494267</v>
+        <v>0.92535510464942672</v>
       </c>
       <c r="G8">
-        <v>0.5899005307049695</v>
+        <v>0.58990053070496951</v>
       </c>
       <c r="H8">
-        <v>0.672254682802055</v>
+        <v>0.67225468280205503</v>
       </c>
       <c r="I8">
-        <v>0.901654976424818</v>
+        <v>0.90165497642481796</v>
       </c>
       <c r="J8">
-        <v>0.765170649433472</v>
+        <v>0.76517064943347202</v>
       </c>
       <c r="K8">
-        <v>0.6928827935720385</v>
+        <v>0.69288279357203852</v>
       </c>
       <c r="L8">
-        <v>0.7624086443273762</v>
+        <v>0.76240864432737621</v>
       </c>
       <c r="M8">
-        <v>0.50793162380185</v>
+        <v>0.50793162380184997</v>
       </c>
       <c r="N8">
-        <v>0.967031695425933</v>
+        <v>0.96703169542593304</v>
       </c>
       <c r="O8">
-        <v>0.9269364509912142</v>
+        <v>0.92693645099121424</v>
       </c>
       <c r="P8">
-        <v>0.797780656792531</v>
+        <v>0.79778065679253096</v>
       </c>
       <c r="Q8">
-        <v>0.8828605723183219</v>
+        <v>0.88286057231832193</v>
       </c>
       <c r="R8">
-        <v>0.6031645826773945</v>
+        <v>0.60316458267739448</v>
       </c>
       <c r="S8">
-        <v>0.9053170050159257</v>
+        <v>0.90531700501592571</v>
       </c>
       <c r="T8">
-        <v>1.142218726513167</v>
+        <v>1.1422187265131669</v>
       </c>
       <c r="U8">
-        <v>0.944619779924785</v>
+        <v>0.94461977992478496</v>
       </c>
       <c r="V8">
-        <v>1.091408320364038</v>
+        <v>1.0914083203640379</v>
       </c>
       <c r="W8">
-        <v>0.8584055487547063</v>
+        <v>0.85840554875470632</v>
       </c>
       <c r="X8">
-        <v>1.090584298285496</v>
+        <v>1.0905842982854961</v>
       </c>
       <c r="Y8">
-        <v>0.9934865643398609</v>
+        <v>0.99348656433986093</v>
       </c>
       <c r="Z8">
-        <v>0.9144263495582856</v>
+        <v>0.91442634955828561</v>
       </c>
       <c r="AA8">
-        <v>0.8736213257961086</v>
+        <v>0.87362132579610863</v>
       </c>
       <c r="AB8">
-        <v>0.4685833054391625</v>
+        <v>0.46858330543916249</v>
       </c>
       <c r="AC8">
-        <v>0.8950288298354594</v>
+        <v>0.89502882983545939</v>
       </c>
       <c r="AD8">
-        <v>0.8237523172581547</v>
+        <v>0.82375231725815468</v>
       </c>
       <c r="AE8">
-        <v>0.4595891711150299</v>
+        <v>0.45958917111502989</v>
       </c>
       <c r="AF8">
         <v>1.122845218906884</v>
       </c>
       <c r="AG8">
-        <v>0.8076867078251935</v>
+        <v>0.80768670782519347</v>
       </c>
       <c r="AH8">
-        <v>0.9657128447630254</v>
+        <v>0.96571284476302544</v>
       </c>
       <c r="AI8">
-        <v>0.5174060642346255</v>
+        <v>0.51740606423462554</v>
       </c>
       <c r="AJ8">
         <v>1.064474915574009</v>
       </c>
       <c r="AK8">
-        <v>0.892143435399752</v>
+        <v>0.89214343539975205</v>
       </c>
       <c r="AL8">
-        <v>0.5470771654719266</v>
+        <v>0.54707716547192664</v>
       </c>
       <c r="AM8">
         <v>0.5435778487763071</v>
       </c>
       <c r="AN8">
-        <v>0.5565674149771472</v>
+        <v>0.55656741497714723</v>
       </c>
       <c r="AO8">
-        <v>0.8795409711812283</v>
+        <v>0.87954097118122831</v>
       </c>
       <c r="AP8">
-        <v>0.9525994245212985</v>
+        <v>0.95259942452129853</v>
       </c>
       <c r="AQ8">
-        <v>0.7185500984443535</v>
+        <v>0.71855009844435347</v>
       </c>
       <c r="AR8">
         <v>1.063117139972928</v>
       </c>
       <c r="AS8">
-        <v>0.7855900212926106</v>
+        <v>0.78559002129261057</v>
       </c>
       <c r="AT8">
-        <v>0.9670991390677433</v>
+        <v>0.96709913906774325</v>
       </c>
       <c r="AU8">
-        <v>0.6287457824162562</v>
+        <v>0.62874578241625623</v>
       </c>
       <c r="AV8">
-        <v>0.9372699607279457</v>
+        <v>0.93726996072794566</v>
       </c>
       <c r="AW8">
-        <v>0.7155443133063965</v>
+        <v>0.71554431330639645</v>
       </c>
       <c r="AX8">
-        <v>0.6503292218267949</v>
+        <v>0.65032922182679487</v>
       </c>
       <c r="AY8">
         <v>0.6832922494785012</v>
       </c>
       <c r="AZ8">
-        <v>0.8975598178819533</v>
+        <v>0.89755981788195327</v>
       </c>
       <c r="BA8">
         <v>0.5574859257196918</v>
       </c>
       <c r="BB8">
-        <v>0.8006449182046176</v>
+        <v>0.80064491820461758</v>
       </c>
       <c r="BC8">
         <v>0.9001417877215846</v>
       </c>
       <c r="BD8">
-        <v>0.9211089806201949</v>
+        <v>0.92110898062019486</v>
       </c>
       <c r="BE8">
         <v>0.8644841778073753</v>
@@ -1798,177 +2073,177 @@
         <v>0.5407177610508288</v>
       </c>
       <c r="BG8">
-        <v>0.8787688435862903</v>
+        <v>0.87876884358629026</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>0.4278989885955854</v>
+        <v>0.42789898859558539</v>
       </c>
       <c r="C9">
-        <v>0.146724008390221</v>
+        <v>0.14672400839022101</v>
       </c>
       <c r="D9">
-        <v>-0.08519138596633383</v>
+        <v>-8.5191385966333827E-2</v>
       </c>
       <c r="E9">
-        <v>0.4686760052248565</v>
+        <v>0.46867600522485647</v>
       </c>
       <c r="F9">
-        <v>0.3702844854422714</v>
+        <v>0.37028448544227138</v>
       </c>
       <c r="G9">
         <v>-0.1105098312596156</v>
       </c>
       <c r="H9">
-        <v>0.7321343827020236</v>
+        <v>0.73213438270202358</v>
       </c>
       <c r="I9">
         <v>0.599531277829363</v>
       </c>
       <c r="J9">
-        <v>0.4161498820914292</v>
+        <v>0.41614988209142922</v>
       </c>
       <c r="K9">
-        <v>0.6400256482854226</v>
+        <v>0.64002564828542263</v>
       </c>
       <c r="L9">
-        <v>0.8814473771662655</v>
+        <v>0.88144737716626553</v>
       </c>
       <c r="M9">
         <v>-0.1033920671166306</v>
       </c>
       <c r="N9">
-        <v>0.6193343160848949</v>
+        <v>0.61933431608489486</v>
       </c>
       <c r="O9">
         <v>0.1094760409444768</v>
       </c>
       <c r="P9">
-        <v>0.4356817984557254</v>
+        <v>0.43568179845572541</v>
       </c>
       <c r="Q9">
-        <v>0.6200315254150834</v>
+        <v>0.62003152541508344</v>
       </c>
       <c r="R9">
-        <v>0.5282874680523998</v>
+        <v>0.52828746805239979</v>
       </c>
       <c r="S9">
-        <v>-0.007288664254939948</v>
+        <v>-7.2886642549399479E-3</v>
       </c>
       <c r="T9">
-        <v>0.5148729196381214</v>
+        <v>0.51487291963812143</v>
       </c>
       <c r="U9">
-        <v>0.2320052136454711</v>
+        <v>0.23200521364547111</v>
       </c>
       <c r="V9">
-        <v>0.6253511585817227</v>
+        <v>0.62535115858172274</v>
       </c>
       <c r="W9">
-        <v>0.3444074766261012</v>
+        <v>0.34440747662610122</v>
       </c>
       <c r="X9">
-        <v>0.3353277017041846</v>
+        <v>0.33532770170418458</v>
       </c>
       <c r="Y9">
-        <v>0.4078545449376964</v>
+        <v>0.40785454493769641</v>
       </c>
       <c r="Z9">
-        <v>0.1667063871520789</v>
+        <v>0.16670638715207889</v>
       </c>
       <c r="AA9">
-        <v>0.4508018279233947</v>
+        <v>0.45080182792339468</v>
       </c>
       <c r="AB9">
-        <v>0.4903049630730854</v>
+        <v>0.49030496307308541</v>
       </c>
       <c r="AC9">
         <v>0.881069983921133</v>
       </c>
       <c r="AD9">
-        <v>-0.09224803966560532</v>
+        <v>-9.2248039665605325E-2</v>
       </c>
       <c r="AE9">
-        <v>0.09647048993584643</v>
+        <v>9.6470489935846435E-2</v>
       </c>
       <c r="AF9">
-        <v>0.5824918745882461</v>
+        <v>0.58249187458824614</v>
       </c>
       <c r="AG9">
-        <v>0.3939304684408281</v>
+        <v>0.39393046844082807</v>
       </c>
       <c r="AH9">
-        <v>0.2092452865479414</v>
+        <v>0.20924528654794139</v>
       </c>
       <c r="AI9">
-        <v>0.04269297008649022</v>
+        <v>4.2692970086490221E-2</v>
       </c>
       <c r="AJ9">
-        <v>0.6088805728019099</v>
+        <v>0.60888057280190988</v>
       </c>
       <c r="AK9">
         <v>0.4044780750692189</v>
       </c>
       <c r="AL9">
-        <v>0.685042086812475</v>
+        <v>0.68504208681247503</v>
       </c>
       <c r="AM9">
         <v>0.1467160461459899</v>
       </c>
       <c r="AN9">
-        <v>-0.1389291510758286</v>
+        <v>-0.13892915107582859</v>
       </c>
       <c r="AO9">
-        <v>0.445115718207248</v>
+        <v>0.44511571820724799</v>
       </c>
       <c r="AP9">
-        <v>0.5827508586187127</v>
+        <v>0.58275085861871267</v>
       </c>
       <c r="AQ9">
-        <v>0.6810585924999696</v>
+        <v>0.68105859249996958</v>
       </c>
       <c r="AR9">
-        <v>0.7206734506513948</v>
+        <v>0.72067345065139476</v>
       </c>
       <c r="AS9">
         <v>-0.1243781796715317</v>
       </c>
       <c r="AT9">
-        <v>0.500064779476159</v>
+        <v>0.50006477947615902</v>
       </c>
       <c r="AU9">
-        <v>0.1286122986974362</v>
+        <v>0.12861229869743621</v>
       </c>
       <c r="AV9">
-        <v>0.02022743432448131</v>
+        <v>2.0227434324481309E-2</v>
       </c>
       <c r="AW9">
-        <v>0.1925269810336218</v>
+        <v>0.19252698103362181</v>
       </c>
       <c r="AX9">
-        <v>0.2656175919787093</v>
+        <v>0.26561759197870932</v>
       </c>
       <c r="AY9">
-        <v>0.2060827948083822</v>
+        <v>0.20608279480838221</v>
       </c>
       <c r="AZ9">
-        <v>0.2104095583119233</v>
+        <v>0.21040955831192329</v>
       </c>
       <c r="BA9">
-        <v>0.6021576220650486</v>
+        <v>0.60215762206504864</v>
       </c>
       <c r="BB9">
-        <v>0.4568615192245111</v>
+        <v>0.45686151922451113</v>
       </c>
       <c r="BC9">
-        <v>0.339004592230317</v>
+        <v>0.33900459223031698</v>
       </c>
       <c r="BD9">
-        <v>0.3680366023837746</v>
+        <v>0.36803660238377461</v>
       </c>
       <c r="BE9">
         <v>0.7710064410229267</v>
@@ -1980,153 +2255,153 @@
         <v>-0.1982296245767029</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>0.4754954892627151</v>
+        <v>0.47549548926271512</v>
       </c>
       <c r="C10">
-        <v>-0.1450879453193377</v>
+        <v>-0.14508794531933769</v>
       </c>
       <c r="D10">
-        <v>-0.3247307298891778</v>
+        <v>-0.32473072988917778</v>
       </c>
       <c r="E10">
-        <v>-0.1765125284220402</v>
+        <v>-0.17651252842204021</v>
       </c>
       <c r="F10">
         <v>0.150669861326755</v>
       </c>
       <c r="G10">
-        <v>-0.02874570935087228</v>
+        <v>-2.874570935087228E-2</v>
       </c>
       <c r="H10">
-        <v>0.1392276301408873</v>
+        <v>0.13922763014088729</v>
       </c>
       <c r="I10">
-        <v>-0.0973916443246675</v>
+        <v>-9.7391644324667501E-2</v>
       </c>
       <c r="J10">
-        <v>0.2870233464734879</v>
+        <v>0.28702334647348787</v>
       </c>
       <c r="K10">
-        <v>-0.4224394432699168</v>
+        <v>-0.42243944326991678</v>
       </c>
       <c r="L10">
-        <v>0.08842843985550083</v>
+        <v>8.8428439855500834E-2</v>
       </c>
       <c r="M10">
-        <v>-0.3341113102735999</v>
+        <v>-0.33411131027359992</v>
       </c>
       <c r="N10">
-        <v>0.6730038122367686</v>
+        <v>0.67300381223676864</v>
       </c>
       <c r="O10">
-        <v>-0.1593260376498679</v>
+        <v>-0.15932603764986791</v>
       </c>
       <c r="P10">
-        <v>0.3482089543775765</v>
+        <v>0.34820895437757649</v>
       </c>
       <c r="Q10">
-        <v>0.03886849743887998</v>
+        <v>3.8868497438879983E-2</v>
       </c>
       <c r="R10">
         <v>-0.4945690516473395</v>
       </c>
       <c r="S10">
-        <v>0.2733941050487796</v>
+        <v>0.27339410504877959</v>
       </c>
       <c r="T10">
-        <v>-0.03287916808147902</v>
+        <v>-3.2879168081479018E-2</v>
       </c>
       <c r="U10">
-        <v>0.005234293268834629</v>
+        <v>5.2342932688346291E-3</v>
       </c>
       <c r="V10">
-        <v>0.3159883957053237</v>
+        <v>0.31598839570532372</v>
       </c>
       <c r="W10">
-        <v>0.2144793511149365</v>
+        <v>0.21447935111493649</v>
       </c>
       <c r="X10">
         <v>0.1812741594383149</v>
       </c>
       <c r="Y10">
-        <v>-0.03718203448184766</v>
+        <v>-3.7182034481847662E-2</v>
       </c>
       <c r="Z10">
-        <v>-0.09961994547441887</v>
+        <v>-9.9619945474418867E-2</v>
       </c>
       <c r="AA10">
-        <v>-0.3595985462120243</v>
+        <v>-0.35959854621202431</v>
       </c>
       <c r="AB10">
-        <v>-0.2345024450670583</v>
+        <v>-0.23450244506705831</v>
       </c>
       <c r="AC10">
         <v>1.040638232033005</v>
       </c>
       <c r="AD10">
-        <v>0.463132437068945</v>
+        <v>0.46313243706894502</v>
       </c>
       <c r="AE10">
         <v>0.1057555675614081</v>
       </c>
       <c r="AF10">
-        <v>0.2329421441759592</v>
+        <v>0.23294214417595921</v>
       </c>
       <c r="AG10">
-        <v>0.1636731399595275</v>
+        <v>0.16367313995952751</v>
       </c>
       <c r="AH10">
-        <v>0.03001282747135004</v>
+        <v>3.0012827471350041E-2</v>
       </c>
       <c r="AI10">
-        <v>0.02328806483314035</v>
+        <v>2.3288064833140349E-2</v>
       </c>
       <c r="AJ10">
-        <v>0.2915746622317067</v>
+        <v>0.29157466223170669</v>
       </c>
       <c r="AK10">
-        <v>0.006041375150740017</v>
+        <v>6.0413751507400167E-3</v>
       </c>
       <c r="AL10">
-        <v>-0.3065201133560224</v>
+        <v>-0.30652011335602242</v>
       </c>
       <c r="AM10">
-        <v>-0.7183836791841067</v>
+        <v>-0.71838367918410673</v>
       </c>
       <c r="AN10">
-        <v>-0.2920356786134747</v>
+        <v>-0.29203567861347468</v>
       </c>
       <c r="AO10">
-        <v>-0.4407947143663363</v>
+        <v>-0.44079471436633633</v>
       </c>
       <c r="AP10">
-        <v>0.1378874553697912</v>
+        <v>0.13788745536979119</v>
       </c>
       <c r="AQ10">
-        <v>0.7405196613360502</v>
+        <v>0.74051966133605018</v>
       </c>
       <c r="AR10">
-        <v>0.001872449357958836</v>
+        <v>1.872449357958836E-3</v>
       </c>
       <c r="AS10">
-        <v>-0.9692768991770256</v>
+        <v>-0.96927689917702564</v>
       </c>
       <c r="AT10">
-        <v>-0.07787327680950791</v>
+        <v>-7.787327680950791E-2</v>
       </c>
       <c r="AU10">
         <v>-0.1933870646667081</v>
       </c>
       <c r="AV10">
-        <v>0.0298985104708902</v>
+        <v>2.9898510470890202E-2</v>
       </c>
       <c r="AW10">
-        <v>-0.06633659541340396</v>
+        <v>-6.6336595413403962E-2</v>
       </c>
       <c r="AX10">
         <v>0.2152594532594912</v>
@@ -2135,207 +2410,207 @@
         <v>0.2243353034229226</v>
       </c>
       <c r="AZ10">
-        <v>0.5214506811542304</v>
+        <v>0.52145068115423043</v>
       </c>
       <c r="BA10">
-        <v>-0.008399510986527057</v>
+        <v>-8.3995109865270569E-3</v>
       </c>
       <c r="BB10">
-        <v>-0.4500381339901559</v>
+        <v>-0.45003813399015591</v>
       </c>
       <c r="BC10">
-        <v>0.03867983949585105</v>
+        <v>3.8679839495851048E-2</v>
       </c>
       <c r="BD10">
-        <v>0.03019386608417639</v>
+        <v>3.0193866084176391E-2</v>
       </c>
       <c r="BE10">
-        <v>-0.1906951444334873</v>
+        <v>-0.19069514443348731</v>
       </c>
       <c r="BF10">
-        <v>0.007078888109298923</v>
+        <v>7.0788881092989234E-3</v>
       </c>
       <c r="BG10">
-        <v>-0.243838169612332</v>
+        <v>-0.24383816961233201</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>0.7485365299814016</v>
+        <v>0.74853652998140163</v>
       </c>
       <c r="C11">
-        <v>0.7483172832712942</v>
+        <v>0.74831728327129421</v>
       </c>
       <c r="D11">
         <v>0.6953738459443809</v>
       </c>
       <c r="E11">
-        <v>0.7087245586968521</v>
+        <v>0.70872455869685214</v>
       </c>
       <c r="F11">
-        <v>0.7690703347177876</v>
+        <v>0.76907033471778763</v>
       </c>
       <c r="G11">
-        <v>1.352854861134772</v>
+        <v>1.3528548611347719</v>
       </c>
       <c r="H11">
-        <v>0.8334580423023267</v>
+        <v>0.83345804230232667</v>
       </c>
       <c r="I11">
-        <v>0.8502092961797951</v>
+        <v>0.85020929617979513</v>
       </c>
       <c r="J11">
-        <v>0.7026488005889457</v>
+        <v>0.70264880058894574</v>
       </c>
       <c r="K11">
-        <v>0.8005500012551001</v>
+        <v>0.80055000125510012</v>
       </c>
       <c r="L11">
-        <v>1.00288332301382</v>
+        <v>1.0028833230138201</v>
       </c>
       <c r="M11">
-        <v>0.5365499112917871</v>
+        <v>0.53654991129178708</v>
       </c>
       <c r="N11">
-        <v>0.8762246252900894</v>
+        <v>0.87622462529008938</v>
       </c>
       <c r="O11">
-        <v>0.842532201862621</v>
+        <v>0.84253220186262101</v>
       </c>
       <c r="P11">
         <v>1.082741170288712</v>
       </c>
       <c r="Q11">
-        <v>0.8970700980006185</v>
+        <v>0.89707009800061854</v>
       </c>
       <c r="R11">
-        <v>0.6820209460374029</v>
+        <v>0.68202094603740293</v>
       </c>
       <c r="S11">
-        <v>0.8048633028764934</v>
+        <v>0.80486330287649344</v>
       </c>
       <c r="T11">
-        <v>0.8146349753147671</v>
+        <v>0.81463497531476714</v>
       </c>
       <c r="U11">
         <v>1.028605805369843</v>
       </c>
       <c r="V11">
-        <v>0.7618396316563986</v>
+        <v>0.76183963165639856</v>
       </c>
       <c r="W11">
-        <v>1.1595318157085</v>
+        <v>1.1595318157084999</v>
       </c>
       <c r="X11">
-        <v>0.7786811267719256</v>
+        <v>0.77868112677192558</v>
       </c>
       <c r="Y11">
-        <v>0.9226591955388324</v>
+        <v>0.92265919553883236</v>
       </c>
       <c r="Z11">
-        <v>0.9314370716586871</v>
+        <v>0.93143707165868705</v>
       </c>
       <c r="AA11">
-        <v>0.7612794689999833</v>
+        <v>0.76127946899998333</v>
       </c>
       <c r="AB11">
-        <v>0.9033716806817059</v>
+        <v>0.90337168068170592</v>
       </c>
       <c r="AC11">
-        <v>0.7690087901506492</v>
+        <v>0.76900879015064916</v>
       </c>
       <c r="AD11">
-        <v>0.713380488432986</v>
+        <v>0.71338048843298596</v>
       </c>
       <c r="AE11">
-        <v>0.8071819142785693</v>
+        <v>0.80718191427856933</v>
       </c>
       <c r="AF11">
         <v>1.298809683340576</v>
       </c>
       <c r="AG11">
-        <v>0.8356921888935671</v>
+        <v>0.83569218889356711</v>
       </c>
       <c r="AH11">
-        <v>0.8211765501404684</v>
+        <v>0.82117655014046842</v>
       </c>
       <c r="AI11">
         <v>1.06738694187276</v>
       </c>
       <c r="AJ11">
-        <v>0.7781455339632027</v>
+        <v>0.77814553396320274</v>
       </c>
       <c r="AK11">
-        <v>0.8598776355396099</v>
+        <v>0.85987763553960994</v>
       </c>
       <c r="AL11">
         <v>1.022260855448309</v>
       </c>
       <c r="AM11">
-        <v>0.8551194545167601</v>
+        <v>0.85511945451676008</v>
       </c>
       <c r="AN11">
-        <v>1.016488227680194</v>
+        <v>1.0164882276801941</v>
       </c>
       <c r="AO11">
-        <v>0.7789016553548679</v>
+        <v>0.77890165535486788</v>
       </c>
       <c r="AP11">
-        <v>0.7160393385797738</v>
+        <v>0.71603933857977375</v>
       </c>
       <c r="AQ11">
         <v>0.7403320599481128</v>
       </c>
       <c r="AR11">
-        <v>0.7795950425842972</v>
+        <v>0.77959504258429724</v>
       </c>
       <c r="AS11">
-        <v>0.8992286094195591</v>
+        <v>0.89922860941955907</v>
       </c>
       <c r="AT11">
-        <v>0.8074248920721268</v>
+        <v>0.80742489207212675</v>
       </c>
       <c r="AU11">
-        <v>0.7048598254363131</v>
+        <v>0.70485982543631309</v>
       </c>
       <c r="AV11">
-        <v>0.6015478520091525</v>
+        <v>0.60154785200915251</v>
       </c>
       <c r="AW11">
-        <v>1.03854181909011</v>
+        <v>1.0385418190901099</v>
       </c>
       <c r="AX11">
-        <v>0.8244932079472044</v>
+        <v>0.82449320794720438</v>
       </c>
       <c r="AY11">
-        <v>0.8860238321332217</v>
+        <v>0.88602383213322167</v>
       </c>
       <c r="AZ11">
-        <v>0.9621605928817575</v>
+        <v>0.96216059288175748</v>
       </c>
       <c r="BA11">
         <v>0.816603837971971</v>
       </c>
       <c r="BB11">
-        <v>0.6627400515395584</v>
+        <v>0.66274005153955839</v>
       </c>
       <c r="BC11">
-        <v>0.9561842777724679</v>
+        <v>0.95618427777246795</v>
       </c>
       <c r="BD11">
-        <v>0.7840405262022312</v>
+        <v>0.78404052620223119</v>
       </c>
       <c r="BE11">
-        <v>0.9035933208913249</v>
+        <v>0.90359332089132494</v>
       </c>
       <c r="BF11">
-        <v>0.8412272642410455</v>
+        <v>0.84122726424104555</v>
       </c>
       <c r="BG11">
-        <v>0.8036139824242745</v>
+        <v>0.80361398242427451</v>
       </c>
     </row>
   </sheetData>
